--- a/state_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
+++ b/state_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U103"/>
+  <dimension ref="A1:U124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>4.35</v>
       </c>
       <c r="G2" t="n">
-        <v>4.84076564644118</v>
+        <v>4.84183319224685</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>11.4895303081885</v>
       </c>
       <c r="I2" t="n">
-        <v>9.533670000000001</v>
+        <v>9.84435</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>6.342</v>
+        <v>6.4361</v>
       </c>
       <c r="N2" t="n">
-        <v>9.4412</v>
+        <v>8.42027</v>
       </c>
       <c r="O2" t="n">
         <v>1788683</v>
@@ -813,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>39.7566185343157</v>
+        <v>39.7637920051154</v>
       </c>
       <c r="H5" t="n">
         <v>390</v>
@@ -898,7 +898,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>39.7566185343157</v>
+        <v>39.7637920051154</v>
       </c>
       <c r="H6" t="n">
         <v>390</v>
@@ -983,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>39.7566185343157</v>
+        <v>39.7637920051154</v>
       </c>
       <c r="H7" t="n">
         <v>390</v>
@@ -1068,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>39.7566185343157</v>
+        <v>39.7637920051154</v>
       </c>
       <c r="H8" t="n">
         <v>390</v>
@@ -1150,27 +1150,27 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00109</v>
+        <v>0.00121</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0025998626126936</v>
+        <v>0.0027606993417225</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0137924410474212</v>
+        <v>0.0150604837098655</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0092</v>
+        <v>0.00923</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00187</v>
+        <v>0.0023</v>
       </c>
       <c r="M9" t="n">
         <v>0.00588</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00774</v>
+        <v>0.0081</v>
       </c>
       <c r="O9" t="n">
         <v>1788683</v>
@@ -1231,27 +1231,27 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00109</v>
+        <v>0.00121</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0025998626126936</v>
+        <v>0.0027606993417225</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0137924410474212</v>
+        <v>0.0150604837098655</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0092</v>
+        <v>0.00923</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00187</v>
+        <v>0.0023</v>
       </c>
       <c r="M10" t="n">
         <v>0.00588</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00774</v>
+        <v>0.0081</v>
       </c>
       <c r="O10" t="n">
         <v>1788683</v>
@@ -1311,10 +1311,10 @@
         <v>0.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.056</v>
+        <v>0.0559545454545455</v>
       </c>
       <c r="H11" t="n">
-        <v>0.145</v>
+        <v>0.1445</v>
       </c>
       <c r="I11" t="n">
         <v>0.105</v>
@@ -1322,10 +1322,10 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.025</v>
+        <v>0.0255</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09389</v>
+        <v>0.09344</v>
       </c>
       <c r="N11" t="n">
         <v>0.10458</v>
@@ -1388,10 +1388,10 @@
         <v>0.05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.056</v>
+        <v>0.0559545454545455</v>
       </c>
       <c r="H12" t="n">
-        <v>0.145</v>
+        <v>0.1445</v>
       </c>
       <c r="I12" t="n">
         <v>0.105</v>
@@ -1399,10 +1399,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.025</v>
+        <v>0.0255</v>
       </c>
       <c r="M12" t="n">
-        <v>0.09389</v>
+        <v>0.09344</v>
       </c>
       <c r="N12" t="n">
         <v>0.10458</v>
@@ -1465,7 +1465,7 @@
         <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.114773792167017</v>
+        <v>0.114189385502351</v>
       </c>
       <c r="H13" t="n">
         <v>0.33</v>
@@ -1542,7 +1542,7 @@
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.114773792167017</v>
+        <v>0.114189385502351</v>
       </c>
       <c r="H14" t="n">
         <v>0.33</v>
@@ -4208,7 +4208,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="n">
-        <v>90.1788812095571</v>
+        <v>90.17034742973399</v>
       </c>
       <c r="H48" t="n">
         <v>570</v>
@@ -4293,7 +4293,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="n">
-        <v>90.1788812095571</v>
+        <v>90.17034742973399</v>
       </c>
       <c r="H49" t="n">
         <v>570</v>
@@ -4378,7 +4378,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="n">
-        <v>90.1788812095571</v>
+        <v>90.17034742973399</v>
       </c>
       <c r="H50" t="n">
         <v>570</v>
@@ -4463,7 +4463,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="n">
-        <v>90.1788812095571</v>
+        <v>90.17034742973399</v>
       </c>
       <c r="H51" t="n">
         <v>570</v>
@@ -4860,7 +4860,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1056</v>
+        <v>0.105614285714286</v>
       </c>
       <c r="H56" t="n">
         <v>0.76</v>
@@ -4937,7 +4937,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1056</v>
+        <v>0.105614285714286</v>
       </c>
       <c r="H57" t="n">
         <v>0.76</v>
@@ -5727,7 +5727,7 @@
         <v>44</v>
       </c>
       <c r="G67" t="n">
-        <v>98.5161881347766</v>
+        <v>98.5098331923551</v>
       </c>
       <c r="H67" t="n">
         <v>570</v>
@@ -5812,7 +5812,7 @@
         <v>44</v>
       </c>
       <c r="G68" t="n">
-        <v>98.5161881347766</v>
+        <v>98.5098331923551</v>
       </c>
       <c r="H68" t="n">
         <v>570</v>
@@ -5897,7 +5897,7 @@
         <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>98.5161881347766</v>
+        <v>98.5098331923551</v>
       </c>
       <c r="H69" t="n">
         <v>570</v>
@@ -5982,7 +5982,7 @@
         <v>44</v>
       </c>
       <c r="G70" t="n">
-        <v>98.5161881347766</v>
+        <v>98.5098331923551</v>
       </c>
       <c r="H70" t="n">
         <v>570</v>
@@ -6141,10 +6141,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.00226</v>
+        <v>0.00234</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0042267004037139</v>
+        <v>0.0042867436775975</v>
       </c>
       <c r="H72" t="n">
         <v>0.0244834367527385</v>
@@ -6155,7 +6155,7 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.00478</v>
+        <v>0.00487</v>
       </c>
       <c r="M72" t="n">
         <v>0.00727</v>
@@ -6222,10 +6222,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.00226</v>
+        <v>0.00234</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0042267004037139</v>
+        <v>0.0042867436775975</v>
       </c>
       <c r="H73" t="n">
         <v>0.0244834367527385</v>
@@ -6236,7 +6236,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>0.00478</v>
+        <v>0.00487</v>
       </c>
       <c r="M73" t="n">
         <v>0.00727</v>
@@ -6541,7 +6541,7 @@
         <v>0.081</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0996595744680851</v>
+        <v>0.0996808510638298</v>
       </c>
       <c r="H77" t="n">
         <v>0.76</v>
@@ -6618,7 +6618,7 @@
         <v>0.081</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0996595744680851</v>
+        <v>0.0996808510638298</v>
       </c>
       <c r="H78" t="n">
         <v>0.76</v>
@@ -7408,7 +7408,7 @@
         <v>46</v>
       </c>
       <c r="G88" t="n">
-        <v>105.986800755973</v>
+        <v>105.981467143584</v>
       </c>
       <c r="H88" t="n">
         <v>992</v>
@@ -7493,7 +7493,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="n">
-        <v>105.986800755973</v>
+        <v>105.981467143584</v>
       </c>
       <c r="H89" t="n">
         <v>992</v>
@@ -7578,7 +7578,7 @@
         <v>46</v>
       </c>
       <c r="G90" t="n">
-        <v>105.986800755973</v>
+        <v>105.981467143584</v>
       </c>
       <c r="H90" t="n">
         <v>992</v>
@@ -7663,7 +7663,7 @@
         <v>46</v>
       </c>
       <c r="G91" t="n">
-        <v>105.986800755973</v>
+        <v>105.981467143584</v>
       </c>
       <c r="H91" t="n">
         <v>992</v>
@@ -7825,7 +7825,7 @@
         <v>0.00217</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0038467344696569</v>
+        <v>0.0038951290758606</v>
       </c>
       <c r="H93" t="n">
         <v>0.0244834367527385</v>
@@ -7836,10 +7836,10 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>0.00409</v>
+        <v>0.00414</v>
       </c>
       <c r="M93" t="n">
-        <v>0.006</v>
+        <v>0.00613</v>
       </c>
       <c r="N93" t="n">
         <v>0.01153</v>
@@ -7906,7 +7906,7 @@
         <v>0.00217</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0038467344696569</v>
+        <v>0.0038951290758606</v>
       </c>
       <c r="H94" t="n">
         <v>0.0244834367527385</v>
@@ -7917,10 +7917,10 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00409</v>
+        <v>0.00414</v>
       </c>
       <c r="M94" t="n">
-        <v>0.006</v>
+        <v>0.00613</v>
       </c>
       <c r="N94" t="n">
         <v>0.01153</v>
@@ -8222,7 +8222,7 @@
         <v>0.083</v>
       </c>
       <c r="G98" t="n">
-        <v>0.101714285714286</v>
+        <v>0.101732142857143</v>
       </c>
       <c r="H98" t="n">
         <v>0.76</v>
@@ -8299,7 +8299,7 @@
         <v>0.083</v>
       </c>
       <c r="G99" t="n">
-        <v>0.101714285714286</v>
+        <v>0.101732142857143</v>
       </c>
       <c r="H99" t="n">
         <v>0.76</v>
@@ -8658,6 +8658,1687 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.6768</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>8.99908792566664</v>
+      </c>
+      <c r="H105" t="n">
+        <v>110</v>
+      </c>
+      <c r="I105" t="n">
+        <v>36.85</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M105" t="n">
+        <v>15.175</v>
+      </c>
+      <c r="N105" t="n">
+        <v>23</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3.46427272727273</v>
+      </c>
+      <c r="H106" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6.1875</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4.64125</v>
+      </c>
+      <c r="N106" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0118214285714286</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.01398</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.01602</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0118214285714286</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.0184</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.01398</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.01602</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>46</v>
+      </c>
+      <c r="G109" t="n">
+        <v>99.2865447745161</v>
+      </c>
+      <c r="H109" t="n">
+        <v>992</v>
+      </c>
+      <c r="I109" t="n">
+        <v>377</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.57142857142857</v>
+      </c>
+      <c r="K109" t="n">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L109" t="n">
+        <v>120</v>
+      </c>
+      <c r="M109" t="n">
+        <v>140</v>
+      </c>
+      <c r="N109" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>46</v>
+      </c>
+      <c r="G110" t="n">
+        <v>99.2865447745161</v>
+      </c>
+      <c r="H110" t="n">
+        <v>992</v>
+      </c>
+      <c r="I110" t="n">
+        <v>377</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.57142857142857</v>
+      </c>
+      <c r="K110" t="n">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L110" t="n">
+        <v>120</v>
+      </c>
+      <c r="M110" t="n">
+        <v>140</v>
+      </c>
+      <c r="N110" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>46</v>
+      </c>
+      <c r="G111" t="n">
+        <v>99.2865447745161</v>
+      </c>
+      <c r="H111" t="n">
+        <v>992</v>
+      </c>
+      <c r="I111" t="n">
+        <v>377</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.57142857142857</v>
+      </c>
+      <c r="K111" t="n">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L111" t="n">
+        <v>120</v>
+      </c>
+      <c r="M111" t="n">
+        <v>140</v>
+      </c>
+      <c r="N111" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>46</v>
+      </c>
+      <c r="G112" t="n">
+        <v>99.2865447745161</v>
+      </c>
+      <c r="H112" t="n">
+        <v>992</v>
+      </c>
+      <c r="I112" t="n">
+        <v>377</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.57142857142857</v>
+      </c>
+      <c r="K112" t="n">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L112" t="n">
+        <v>120</v>
+      </c>
+      <c r="M112" t="n">
+        <v>140</v>
+      </c>
+      <c r="N112" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>129.17</v>
+      </c>
+      <c r="G113" t="n">
+        <v>133.908</v>
+      </c>
+      <c r="H113" t="n">
+        <v>147.37</v>
+      </c>
+      <c r="I113" t="n">
+        <v>147.37</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>129.17</v>
+      </c>
+      <c r="M113" t="n">
+        <v>145.8405</v>
+      </c>
+      <c r="N113" t="n">
+        <v>147.37</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.00235</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0039717730981762</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0244834367527385</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.01314</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>0.00418</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.00604</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.01147</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.00235</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0039717730981762</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0244834367527385</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.01314</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>0.00418</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.00604</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.01147</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.06950000000000001</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0860357142857143</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.12496</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.15104</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.06950000000000001</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0860357142857143</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.12496</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.15104</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>7.595</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7.5594</v>
+      </c>
+      <c r="H118" t="n">
+        <v>7.742</v>
+      </c>
+      <c r="I118" t="n">
+        <v>7.742</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>7.595</v>
+      </c>
+      <c r="M118" t="n">
+        <v>7.6923</v>
+      </c>
+      <c r="N118" t="n">
+        <v>7.742</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0987232142857143</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.1699</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.13494</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.15408</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0987232142857143</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.1699</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.13494</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.15408</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.30625</v>
+      </c>
+      <c r="H121" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.30625</v>
+      </c>
+      <c r="H122" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P122" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.01898</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.02102</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P123" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.01898</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.02102</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="P124" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
+++ b/state_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
@@ -570,13 +570,13 @@
         <v>4.35</v>
       </c>
       <c r="G2" t="n">
-        <v>4.84183319224685</v>
+        <v>4.88340904485633</v>
       </c>
       <c r="H2" t="n">
-        <v>11.4895303081885</v>
+        <v>11.6078109350033</v>
       </c>
       <c r="I2" t="n">
-        <v>9.84435</v>
+        <v>9.897880000000001</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>6.4361</v>
+        <v>6.342</v>
       </c>
       <c r="N2" t="n">
-        <v>8.42027</v>
+        <v>8.973990000000001</v>
       </c>
       <c r="O2" t="n">
         <v>1788683</v>

--- a/state_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
+++ b/state_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="73">
   <si>
     <t>site name</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U124"/>
+  <dimension ref="A1:U145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,28 +675,28 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>4.35</v>
       </c>
       <c r="G2">
-        <v>4.83779214427558</v>
+        <v>4.85399876342241</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>10.6473451146966</v>
       </c>
       <c r="I2">
-        <v>9.869619999999999</v>
+        <v>9.97203</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M2">
-        <v>7.00931</v>
+        <v>6.342</v>
       </c>
       <c r="N2">
-        <v>8.997260000000001</v>
+        <v>9.663639999999999</v>
       </c>
       <c r="O2">
         <v>1788683</v>
@@ -702,19 +705,19 @@
         <v>5491286</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -731,7 +734,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>0.01</v>
@@ -761,19 +764,19 @@
         <v>5491286</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -790,7 +793,7 @@
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>0.01</v>
@@ -820,19 +823,19 @@
         <v>5491286</v>
       </c>
       <c r="Q4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -849,13 +852,13 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5">
-        <v>39.7637920051154</v>
+        <v>39.7505736501107</v>
       </c>
       <c r="H5">
         <v>390</v>
@@ -870,7 +873,7 @@
         <v>3.03030303030303</v>
       </c>
       <c r="L5">
-        <v>31.5</v>
+        <v>26.5</v>
       </c>
       <c r="M5">
         <v>58.01</v>
@@ -885,19 +888,19 @@
         <v>5491286</v>
       </c>
       <c r="Q5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -914,13 +917,13 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
       <c r="G6">
-        <v>39.7637920051154</v>
+        <v>39.7505736501107</v>
       </c>
       <c r="H6">
         <v>390</v>
@@ -935,7 +938,7 @@
         <v>3.03030303030303</v>
       </c>
       <c r="L6">
-        <v>31.5</v>
+        <v>26.5</v>
       </c>
       <c r="M6">
         <v>58.01</v>
@@ -950,19 +953,19 @@
         <v>5491286</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -979,13 +982,13 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7">
-        <v>39.7637920051154</v>
+        <v>39.7505736501107</v>
       </c>
       <c r="H7">
         <v>390</v>
@@ -1000,7 +1003,7 @@
         <v>3.03030303030303</v>
       </c>
       <c r="L7">
-        <v>31.5</v>
+        <v>26.5</v>
       </c>
       <c r="M7">
         <v>58.01</v>
@@ -1015,19 +1018,19 @@
         <v>5491286</v>
       </c>
       <c r="Q7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1044,13 +1047,13 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>12</v>
       </c>
       <c r="G8">
-        <v>39.7637920051154</v>
+        <v>39.7505736501107</v>
       </c>
       <c r="H8">
         <v>390</v>
@@ -1065,7 +1068,7 @@
         <v>3.03030303030303</v>
       </c>
       <c r="L8">
-        <v>31.5</v>
+        <v>26.5</v>
       </c>
       <c r="M8">
         <v>58.01</v>
@@ -1080,19 +1083,19 @@
         <v>5491286</v>
       </c>
       <c r="Q8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1109,28 +1112,28 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9">
-        <v>0.00121</v>
+        <v>0.0011</v>
       </c>
       <c r="G9">
-        <v>0.0027606993417225</v>
+        <v>0.0026390700554176</v>
       </c>
       <c r="H9">
-        <v>0.0150604837098655</v>
+        <v>0.0136823086433389</v>
       </c>
       <c r="I9">
-        <v>0.00923</v>
+        <v>0.0092</v>
       </c>
       <c r="L9">
-        <v>0.0023</v>
+        <v>0.00104</v>
       </c>
       <c r="M9">
         <v>0.00588</v>
       </c>
       <c r="N9">
-        <v>0.0081</v>
+        <v>0.00776</v>
       </c>
       <c r="O9">
         <v>1788683</v>
@@ -1139,19 +1142,19 @@
         <v>5491286</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1168,28 +1171,28 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10">
-        <v>0.00121</v>
+        <v>0.0011</v>
       </c>
       <c r="G10">
-        <v>0.0027606993417225</v>
+        <v>0.0026390700554176</v>
       </c>
       <c r="H10">
-        <v>0.0150604837098655</v>
+        <v>0.0136823086433389</v>
       </c>
       <c r="I10">
-        <v>0.00923</v>
+        <v>0.0092</v>
       </c>
       <c r="L10">
-        <v>0.0023</v>
+        <v>0.00104</v>
       </c>
       <c r="M10">
         <v>0.00588</v>
       </c>
       <c r="N10">
-        <v>0.0081</v>
+        <v>0.00776</v>
       </c>
       <c r="O10">
         <v>1788683</v>
@@ -1198,19 +1201,19 @@
         <v>5491286</v>
       </c>
       <c r="Q10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1224,7 +1227,7 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11">
         <v>0.05</v>
@@ -1239,7 +1242,7 @@
         <v>0.105</v>
       </c>
       <c r="L11">
-        <v>0.0255</v>
+        <v>0.0285</v>
       </c>
       <c r="M11">
         <v>0.09344</v>
@@ -1254,19 +1257,19 @@
         <v>5491286</v>
       </c>
       <c r="Q11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1280,7 +1283,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>0.05</v>
@@ -1295,7 +1298,7 @@
         <v>0.105</v>
       </c>
       <c r="L12">
-        <v>0.0255</v>
+        <v>0.0285</v>
       </c>
       <c r="M12">
         <v>0.09344</v>
@@ -1310,19 +1313,19 @@
         <v>5491286</v>
       </c>
       <c r="Q12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1336,13 +1339,13 @@
         <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>0.1</v>
       </c>
       <c r="G13">
-        <v>0.114189385502351</v>
+        <v>0.114074505674197</v>
       </c>
       <c r="H13">
         <v>0.33</v>
@@ -1366,19 +1369,19 @@
         <v>5491286</v>
       </c>
       <c r="Q13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1392,13 +1395,13 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14">
         <v>0.1</v>
       </c>
       <c r="G14">
-        <v>0.114189385502351</v>
+        <v>0.114074505674197</v>
       </c>
       <c r="H14">
         <v>0.33</v>
@@ -1422,19 +1425,19 @@
         <v>5491286</v>
       </c>
       <c r="Q14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1448,7 +1451,7 @@
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15">
         <v>0.014</v>
@@ -1463,7 +1466,7 @@
         <v>0.02785</v>
       </c>
       <c r="L15">
-        <v>0.0155</v>
+        <v>0.0145</v>
       </c>
       <c r="M15">
         <v>0.02</v>
@@ -1478,19 +1481,19 @@
         <v>5491286</v>
       </c>
       <c r="Q15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1504,7 +1507,7 @@
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16">
         <v>0.014</v>
@@ -1519,7 +1522,7 @@
         <v>0.02785</v>
       </c>
       <c r="L16">
-        <v>0.0155</v>
+        <v>0.0145</v>
       </c>
       <c r="M16">
         <v>0.02</v>
@@ -1534,19 +1537,19 @@
         <v>5491286</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1563,7 +1566,7 @@
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <v>1.35</v>
@@ -1593,19 +1596,19 @@
         <v>5491286</v>
       </c>
       <c r="Q17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1622,7 +1625,7 @@
         <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>130</v>
@@ -1652,16 +1655,16 @@
         <v>5491286</v>
       </c>
       <c r="Q18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1678,7 +1681,7 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>0.637</v>
@@ -1708,16 +1711,16 @@
         <v>5491286</v>
       </c>
       <c r="Q19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1734,7 +1737,7 @@
         <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20">
         <v>1.9</v>
@@ -1749,7 +1752,7 @@
         <v>18.7</v>
       </c>
       <c r="L20">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="M20">
         <v>8.82</v>
@@ -1764,19 +1767,19 @@
         <v>5491286</v>
       </c>
       <c r="Q20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1793,7 +1796,7 @@
         <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21">
         <v>130</v>
@@ -1823,16 +1826,16 @@
         <v>5491286</v>
       </c>
       <c r="Q21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1849,7 +1852,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22">
         <v>7.464</v>
@@ -1879,16 +1882,16 @@
         <v>5491286</v>
       </c>
       <c r="Q22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1905,7 +1908,7 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23">
         <v>0.655</v>
@@ -1935,16 +1938,16 @@
         <v>5491286</v>
       </c>
       <c r="Q23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1961,7 +1964,7 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <v>3.4</v>
@@ -1991,19 +1994,19 @@
         <v>5491286</v>
       </c>
       <c r="Q24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2020,7 +2023,7 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25">
         <v>134</v>
@@ -2050,16 +2053,16 @@
         <v>5491286</v>
       </c>
       <c r="Q25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2076,7 +2079,7 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26">
         <v>7.54</v>
@@ -2106,16 +2109,16 @@
         <v>5491286</v>
       </c>
       <c r="Q26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2132,7 +2135,7 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27">
         <v>0.675</v>
@@ -2147,7 +2150,7 @@
         <v>0.763</v>
       </c>
       <c r="L27">
-        <v>0.665</v>
+        <v>0.675</v>
       </c>
       <c r="M27">
         <v>0.74165</v>
@@ -2162,16 +2165,16 @@
         <v>5491286</v>
       </c>
       <c r="Q27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2188,7 +2191,7 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28">
         <v>3.55</v>
@@ -2218,19 +2221,19 @@
         <v>5491286</v>
       </c>
       <c r="Q28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2241,13 +2244,13 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29">
         <v>130</v>
@@ -2262,7 +2265,7 @@
         <v>168</v>
       </c>
       <c r="L29">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M29">
         <v>156.1</v>
@@ -2277,16 +2280,16 @@
         <v>5491286</v>
       </c>
       <c r="Q29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2303,7 +2306,7 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30">
         <v>7.54</v>
@@ -2318,7 +2321,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L30">
-        <v>7.585</v>
+        <v>7.54</v>
       </c>
       <c r="M30">
         <v>8.163</v>
@@ -2333,16 +2336,16 @@
         <v>5491286</v>
       </c>
       <c r="Q30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2359,7 +2362,7 @@
         <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F31">
         <v>0.702</v>
@@ -2374,7 +2377,7 @@
         <v>0.763</v>
       </c>
       <c r="L31">
-        <v>0.6875</v>
+        <v>0.702</v>
       </c>
       <c r="M31">
         <v>0.74795</v>
@@ -2389,16 +2392,16 @@
         <v>5491286</v>
       </c>
       <c r="Q31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2415,7 +2418,7 @@
         <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32">
         <v>3.5</v>
@@ -2430,7 +2433,7 @@
         <v>19.325</v>
       </c>
       <c r="L32">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M32">
         <v>7.5</v>
@@ -2445,19 +2448,19 @@
         <v>5491286</v>
       </c>
       <c r="Q32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2468,13 +2471,13 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33">
         <v>130</v>
@@ -2489,7 +2492,7 @@
         <v>140</v>
       </c>
       <c r="L33">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M33">
         <v>137.9</v>
@@ -2504,16 +2507,16 @@
         <v>5491286</v>
       </c>
       <c r="Q33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2530,7 +2533,7 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34">
         <v>7.54</v>
@@ -2545,7 +2548,7 @@
         <v>7.8</v>
       </c>
       <c r="L34">
-        <v>7.585</v>
+        <v>7.54</v>
       </c>
       <c r="M34">
         <v>7.7405</v>
@@ -2560,16 +2563,16 @@
         <v>5491286</v>
       </c>
       <c r="Q34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2586,7 +2589,7 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35">
         <v>0.702</v>
@@ -2601,7 +2604,7 @@
         <v>0.763</v>
       </c>
       <c r="L35">
-        <v>0.6965</v>
+        <v>0.702</v>
       </c>
       <c r="M35">
         <v>0.74795</v>
@@ -2616,16 +2619,16 @@
         <v>5491286</v>
       </c>
       <c r="Q35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2642,7 +2645,7 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F36">
         <v>3.55</v>
@@ -2657,7 +2660,7 @@
         <v>21.125</v>
       </c>
       <c r="L36">
-        <v>3.55</v>
+        <v>3.525</v>
       </c>
       <c r="M36">
         <v>8</v>
@@ -2672,19 +2675,19 @@
         <v>5491286</v>
       </c>
       <c r="Q36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2695,13 +2698,13 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37">
         <v>130</v>
@@ -2716,7 +2719,7 @@
         <v>140</v>
       </c>
       <c r="L37">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M37">
         <v>137.9</v>
@@ -2731,16 +2734,16 @@
         <v>5491286</v>
       </c>
       <c r="Q37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2757,7 +2760,7 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F38">
         <v>7.464</v>
@@ -2772,7 +2775,7 @@
         <v>7.8</v>
       </c>
       <c r="L38">
-        <v>7.502</v>
+        <v>7.464</v>
       </c>
       <c r="M38">
         <v>7.709</v>
@@ -2787,16 +2790,16 @@
         <v>5491286</v>
       </c>
       <c r="Q38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2813,7 +2816,7 @@
         <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39">
         <v>0.702</v>
@@ -2828,7 +2831,7 @@
         <v>0.763</v>
       </c>
       <c r="L39">
-        <v>0.6965</v>
+        <v>0.702</v>
       </c>
       <c r="M39">
         <v>0.74795</v>
@@ -2843,16 +2846,16 @@
         <v>5491286</v>
       </c>
       <c r="Q39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2869,7 +2872,7 @@
         <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F40">
         <v>3.55</v>
@@ -2884,7 +2887,7 @@
         <v>24.2</v>
       </c>
       <c r="L40">
-        <v>3.525</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
         <v>14.705</v>
@@ -2899,19 +2902,19 @@
         <v>5491286</v>
       </c>
       <c r="Q40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2928,7 +2931,7 @@
         <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F41">
         <v>128</v>
@@ -2943,7 +2946,7 @@
         <v>140</v>
       </c>
       <c r="L41">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M41">
         <v>137.9</v>
@@ -2958,16 +2961,16 @@
         <v>5491286</v>
       </c>
       <c r="Q41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2984,7 +2987,7 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F42">
         <v>7.53</v>
@@ -2999,7 +3002,7 @@
         <v>7.8</v>
       </c>
       <c r="L42">
-        <v>7.535</v>
+        <v>7.53</v>
       </c>
       <c r="M42">
         <v>7.709</v>
@@ -3014,16 +3017,16 @@
         <v>5491286</v>
       </c>
       <c r="Q42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3040,7 +3043,7 @@
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43">
         <v>0.673</v>
@@ -3055,7 +3058,7 @@
         <v>0.72</v>
       </c>
       <c r="L43">
-        <v>0.6645</v>
+        <v>0.673</v>
       </c>
       <c r="M43">
         <v>0.7137</v>
@@ -3070,16 +3073,16 @@
         <v>5491286</v>
       </c>
       <c r="Q43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3096,7 +3099,7 @@
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44">
         <v>3.725</v>
@@ -3111,7 +3114,7 @@
         <v>24.4</v>
       </c>
       <c r="L44">
-        <v>3.825</v>
+        <v>3.65</v>
       </c>
       <c r="M44">
         <v>16.14</v>
@@ -3126,19 +3129,19 @@
         <v>5491286</v>
       </c>
       <c r="Q44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3155,7 +3158,7 @@
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <v>2.92</v>
@@ -3170,7 +3173,7 @@
         <v>4.74</v>
       </c>
       <c r="L45">
-        <v>2.94</v>
+        <v>2.825</v>
       </c>
       <c r="M45">
         <v>3.536</v>
@@ -3185,19 +3188,19 @@
         <v>5491286</v>
       </c>
       <c r="Q45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3214,7 +3217,7 @@
         <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <v>0.011</v>
@@ -3229,7 +3232,7 @@
         <v>0.01475</v>
       </c>
       <c r="L46">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="M46">
         <v>0.013</v>
@@ -3244,19 +3247,19 @@
         <v>5491286</v>
       </c>
       <c r="Q46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3273,7 +3276,7 @@
         <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47">
         <v>0.011</v>
@@ -3288,7 +3291,7 @@
         <v>0.01475</v>
       </c>
       <c r="L47">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="M47">
         <v>0.013</v>
@@ -3303,19 +3306,19 @@
         <v>5491286</v>
       </c>
       <c r="Q47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3332,13 +3335,13 @@
         <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48">
         <v>39</v>
       </c>
       <c r="G48">
-        <v>90.17034742973399</v>
+        <v>90.1730133776562</v>
       </c>
       <c r="H48">
         <v>570</v>
@@ -3353,7 +3356,7 @@
         <v>5.71428571428571</v>
       </c>
       <c r="L48">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="M48">
         <v>156.5</v>
@@ -3368,19 +3371,19 @@
         <v>5491286</v>
       </c>
       <c r="Q48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3397,13 +3400,13 @@
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49">
         <v>39</v>
       </c>
       <c r="G49">
-        <v>90.17034742973399</v>
+        <v>90.1730133776562</v>
       </c>
       <c r="H49">
         <v>570</v>
@@ -3418,7 +3421,7 @@
         <v>5.71428571428571</v>
       </c>
       <c r="L49">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="M49">
         <v>156.5</v>
@@ -3433,19 +3436,19 @@
         <v>5491286</v>
       </c>
       <c r="Q49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3462,13 +3465,13 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50">
         <v>39</v>
       </c>
       <c r="G50">
-        <v>90.17034742973399</v>
+        <v>90.1730133776562</v>
       </c>
       <c r="H50">
         <v>570</v>
@@ -3483,7 +3486,7 @@
         <v>5.71428571428571</v>
       </c>
       <c r="L50">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="M50">
         <v>156.5</v>
@@ -3498,19 +3501,19 @@
         <v>5491286</v>
       </c>
       <c r="Q50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3527,13 +3530,13 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51">
         <v>39</v>
       </c>
       <c r="G51">
-        <v>90.17034742973399</v>
+        <v>90.1730133776562</v>
       </c>
       <c r="H51">
         <v>570</v>
@@ -3548,7 +3551,7 @@
         <v>5.71428571428571</v>
       </c>
       <c r="L51">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="M51">
         <v>156.5</v>
@@ -3563,19 +3566,19 @@
         <v>5491286</v>
       </c>
       <c r="Q51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3586,13 +3589,13 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52">
         <v>128</v>
@@ -3607,7 +3610,7 @@
         <v>143</v>
       </c>
       <c r="L52">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M52">
         <v>141.95</v>
@@ -3622,16 +3625,16 @@
         <v>5491286</v>
       </c>
       <c r="Q52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3648,7 +3651,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F53">
         <v>0.082</v>
@@ -3663,7 +3666,7 @@
         <v>0.17125</v>
       </c>
       <c r="L53">
-        <v>0.0265</v>
+        <v>0.028</v>
       </c>
       <c r="M53">
         <v>0.1282</v>
@@ -3678,19 +3681,19 @@
         <v>5491286</v>
       </c>
       <c r="Q53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3707,7 +3710,7 @@
         <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F54">
         <v>0.082</v>
@@ -3722,7 +3725,7 @@
         <v>0.17125</v>
       </c>
       <c r="L54">
-        <v>0.0265</v>
+        <v>0.028</v>
       </c>
       <c r="M54">
         <v>0.1282</v>
@@ -3737,19 +3740,19 @@
         <v>5491286</v>
       </c>
       <c r="Q54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3766,7 +3769,7 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F55">
         <v>7.53</v>
@@ -3781,7 +3784,7 @@
         <v>7.8</v>
       </c>
       <c r="L55">
-        <v>7.5625</v>
+        <v>7.53</v>
       </c>
       <c r="M55">
         <v>7.72825</v>
@@ -3796,16 +3799,16 @@
         <v>5491286</v>
       </c>
       <c r="Q55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3819,7 +3822,7 @@
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F56">
         <v>0.08500000000000001</v>
@@ -3834,7 +3837,7 @@
         <v>0.18575</v>
       </c>
       <c r="L56">
-        <v>0.0375</v>
+        <v>0.04</v>
       </c>
       <c r="M56">
         <v>0.14275</v>
@@ -3849,19 +3852,19 @@
         <v>5491286</v>
       </c>
       <c r="Q56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3875,7 +3878,7 @@
         <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F57">
         <v>0.08500000000000001</v>
@@ -3890,7 +3893,7 @@
         <v>0.18575</v>
       </c>
       <c r="L57">
-        <v>0.0375</v>
+        <v>0.04</v>
       </c>
       <c r="M57">
         <v>0.14275</v>
@@ -3905,19 +3908,19 @@
         <v>5491286</v>
       </c>
       <c r="Q57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3931,7 +3934,7 @@
         <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F58">
         <v>0.15</v>
@@ -3961,19 +3964,19 @@
         <v>5491286</v>
       </c>
       <c r="Q58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3987,7 +3990,7 @@
         <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F59">
         <v>0.15</v>
@@ -4017,19 +4020,19 @@
         <v>5491286</v>
       </c>
       <c r="Q59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4043,7 +4046,7 @@
         <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F60">
         <v>0.013</v>
@@ -4058,7 +4061,7 @@
         <v>0.019</v>
       </c>
       <c r="L60">
-        <v>0.0135</v>
+        <v>0.013</v>
       </c>
       <c r="M60">
         <v>0.016</v>
@@ -4073,19 +4076,19 @@
         <v>5491286</v>
       </c>
       <c r="Q60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4099,7 +4102,7 @@
         <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F61">
         <v>0.013</v>
@@ -4114,7 +4117,7 @@
         <v>0.019</v>
       </c>
       <c r="L61">
-        <v>0.0135</v>
+        <v>0.013</v>
       </c>
       <c r="M61">
         <v>0.016</v>
@@ -4129,19 +4132,19 @@
         <v>5491286</v>
       </c>
       <c r="Q61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4158,7 +4161,7 @@
         <v>55</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F62">
         <v>0.656</v>
@@ -4188,16 +4191,16 @@
         <v>5491286</v>
       </c>
       <c r="Q62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4214,7 +4217,7 @@
         <v>55</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F63">
         <v>3.45</v>
@@ -4244,19 +4247,19 @@
         <v>5491286</v>
       </c>
       <c r="Q63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4273,7 +4276,7 @@
         <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F64">
         <v>3.075</v>
@@ -4288,7 +4291,7 @@
         <v>4.924</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="M64">
         <v>4.0744</v>
@@ -4303,19 +4306,19 @@
         <v>5491286</v>
       </c>
       <c r="Q64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4332,7 +4335,7 @@
         <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F65">
         <v>0.01</v>
@@ -4347,7 +4350,7 @@
         <v>0.01415</v>
       </c>
       <c r="L65">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M65">
         <v>0.01251</v>
@@ -4362,19 +4365,19 @@
         <v>5491286</v>
       </c>
       <c r="Q65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4391,7 +4394,7 @@
         <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F66">
         <v>0.01</v>
@@ -4406,7 +4409,7 @@
         <v>0.01415</v>
       </c>
       <c r="L66">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M66">
         <v>0.01251</v>
@@ -4421,19 +4424,19 @@
         <v>5491286</v>
       </c>
       <c r="Q66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4450,13 +4453,13 @@
         <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F67">
         <v>44</v>
       </c>
       <c r="G67">
-        <v>98.5098331923551</v>
+        <v>98.51181847272269</v>
       </c>
       <c r="H67">
         <v>570</v>
@@ -4471,7 +4474,7 @@
         <v>10.6382978723404</v>
       </c>
       <c r="L67">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M67">
         <v>190.4</v>
@@ -4486,19 +4489,19 @@
         <v>5491286</v>
       </c>
       <c r="Q67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4515,13 +4518,13 @@
         <v>55</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F68">
         <v>44</v>
       </c>
       <c r="G68">
-        <v>98.5098331923551</v>
+        <v>98.51181847272269</v>
       </c>
       <c r="H68">
         <v>570</v>
@@ -4536,7 +4539,7 @@
         <v>10.6382978723404</v>
       </c>
       <c r="L68">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M68">
         <v>190.4</v>
@@ -4551,19 +4554,19 @@
         <v>5491286</v>
       </c>
       <c r="Q68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4580,13 +4583,13 @@
         <v>55</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F69">
         <v>44</v>
       </c>
       <c r="G69">
-        <v>98.5098331923551</v>
+        <v>98.51181847272269</v>
       </c>
       <c r="H69">
         <v>570</v>
@@ -4601,7 +4604,7 @@
         <v>10.6382978723404</v>
       </c>
       <c r="L69">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M69">
         <v>190.4</v>
@@ -4616,19 +4619,19 @@
         <v>5491286</v>
       </c>
       <c r="Q69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4645,13 +4648,13 @@
         <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F70">
         <v>44</v>
       </c>
       <c r="G70">
-        <v>98.5098331923551</v>
+        <v>98.51181847272269</v>
       </c>
       <c r="H70">
         <v>570</v>
@@ -4666,7 +4669,7 @@
         <v>10.6382978723404</v>
       </c>
       <c r="L70">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M70">
         <v>190.4</v>
@@ -4681,19 +4684,19 @@
         <v>5491286</v>
       </c>
       <c r="Q70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4710,7 +4713,7 @@
         <v>55</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F71">
         <v>140</v>
@@ -4740,16 +4743,16 @@
         <v>5491286</v>
       </c>
       <c r="Q71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4766,13 +4769,13 @@
         <v>55</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72">
         <v>0.00234</v>
       </c>
       <c r="G72">
-        <v>0.0042867436775975</v>
+        <v>0.0042756463026487</v>
       </c>
       <c r="H72">
         <v>0.0244834367527385</v>
@@ -4781,7 +4784,7 @@
         <v>0.01341</v>
       </c>
       <c r="L72">
-        <v>0.00487</v>
+        <v>0.00412</v>
       </c>
       <c r="M72">
         <v>0.00727</v>
@@ -4796,19 +4799,19 @@
         <v>5491286</v>
       </c>
       <c r="Q72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4825,13 +4828,13 @@
         <v>55</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F73">
         <v>0.00234</v>
       </c>
       <c r="G73">
-        <v>0.0042867436775975</v>
+        <v>0.0042756463026487</v>
       </c>
       <c r="H73">
         <v>0.0244834367527385</v>
@@ -4840,7 +4843,7 @@
         <v>0.01341</v>
       </c>
       <c r="L73">
-        <v>0.00487</v>
+        <v>0.00412</v>
       </c>
       <c r="M73">
         <v>0.00727</v>
@@ -4855,19 +4858,19 @@
         <v>5491286</v>
       </c>
       <c r="Q73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4884,7 +4887,7 @@
         <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74">
         <v>0.077</v>
@@ -4899,7 +4902,7 @@
         <v>0.1507</v>
       </c>
       <c r="L74">
-        <v>0.0365</v>
+        <v>0.044</v>
       </c>
       <c r="M74">
         <v>0.12551</v>
@@ -4914,19 +4917,19 @@
         <v>5491286</v>
       </c>
       <c r="Q74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4943,7 +4946,7 @@
         <v>55</v>
       </c>
       <c r="E75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F75">
         <v>0.077</v>
@@ -4958,7 +4961,7 @@
         <v>0.1507</v>
       </c>
       <c r="L75">
-        <v>0.0365</v>
+        <v>0.044</v>
       </c>
       <c r="M75">
         <v>0.12551</v>
@@ -4973,19 +4976,19 @@
         <v>5491286</v>
       </c>
       <c r="Q75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5002,7 +5005,7 @@
         <v>55</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F76">
         <v>7.53</v>
@@ -5032,16 +5035,16 @@
         <v>5491286</v>
       </c>
       <c r="Q76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5055,7 +5058,7 @@
         <v>55</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F77">
         <v>0.081</v>
@@ -5070,7 +5073,7 @@
         <v>0.16355</v>
       </c>
       <c r="L77">
-        <v>0.048</v>
+        <v>0.053</v>
       </c>
       <c r="M77">
         <v>0.13755</v>
@@ -5085,19 +5088,19 @@
         <v>5491286</v>
       </c>
       <c r="Q77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5111,7 +5114,7 @@
         <v>55</v>
       </c>
       <c r="E78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F78">
         <v>0.081</v>
@@ -5126,7 +5129,7 @@
         <v>0.16355</v>
       </c>
       <c r="L78">
-        <v>0.048</v>
+        <v>0.053</v>
       </c>
       <c r="M78">
         <v>0.13755</v>
@@ -5141,19 +5144,19 @@
         <v>5491286</v>
       </c>
       <c r="Q78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5167,7 +5170,7 @@
         <v>55</v>
       </c>
       <c r="E79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F79">
         <v>0.14</v>
@@ -5197,19 +5200,19 @@
         <v>5491286</v>
       </c>
       <c r="Q79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5223,7 +5226,7 @@
         <v>55</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F80">
         <v>0.14</v>
@@ -5253,19 +5256,19 @@
         <v>5491286</v>
       </c>
       <c r="Q80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5279,7 +5282,7 @@
         <v>55</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F81">
         <v>0.013</v>
@@ -5294,7 +5297,7 @@
         <v>0.01915</v>
       </c>
       <c r="L81">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="M81">
         <v>0.016</v>
@@ -5309,19 +5312,19 @@
         <v>5491286</v>
       </c>
       <c r="Q81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5335,7 +5338,7 @@
         <v>55</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F82">
         <v>0.013</v>
@@ -5350,7 +5353,7 @@
         <v>0.01915</v>
       </c>
       <c r="L82">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="M82">
         <v>0.016</v>
@@ -5365,19 +5368,19 @@
         <v>5491286</v>
       </c>
       <c r="Q82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5394,7 +5397,7 @@
         <v>56</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F83">
         <v>0.64</v>
@@ -5424,16 +5427,16 @@
         <v>5491286</v>
       </c>
       <c r="Q83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5450,7 +5453,7 @@
         <v>56</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F84">
         <v>3.75</v>
@@ -5465,7 +5468,7 @@
         <v>29.85</v>
       </c>
       <c r="L84">
-        <v>3.825</v>
+        <v>3.9</v>
       </c>
       <c r="M84">
         <v>16.5</v>
@@ -5480,19 +5483,19 @@
         <v>5491286</v>
       </c>
       <c r="Q84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5509,7 +5512,7 @@
         <v>56</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F85">
         <v>3.1</v>
@@ -5524,7 +5527,7 @@
         <v>5.19</v>
       </c>
       <c r="L85">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="M85">
         <v>4.2</v>
@@ -5539,19 +5542,19 @@
         <v>5491286</v>
       </c>
       <c r="Q85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5568,7 +5571,7 @@
         <v>56</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F86">
         <v>0.011</v>
@@ -5583,7 +5586,7 @@
         <v>0.0167</v>
       </c>
       <c r="L86">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="M86">
         <v>0.01398</v>
@@ -5598,19 +5601,19 @@
         <v>5491286</v>
       </c>
       <c r="Q86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5627,7 +5630,7 @@
         <v>56</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F87">
         <v>0.011</v>
@@ -5642,7 +5645,7 @@
         <v>0.0167</v>
       </c>
       <c r="L87">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="M87">
         <v>0.01398</v>
@@ -5657,19 +5660,19 @@
         <v>5491286</v>
       </c>
       <c r="Q87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5686,16 +5689,16 @@
         <v>56</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F88">
         <v>46</v>
       </c>
       <c r="G88">
-        <v>105.981467143584</v>
+        <v>105.990276218178</v>
       </c>
       <c r="H88">
-        <v>992</v>
+        <v>992.4</v>
       </c>
       <c r="I88">
         <v>459</v>
@@ -5707,7 +5710,7 @@
         <v>10.7142857142857</v>
       </c>
       <c r="L88">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M88">
         <v>169.4</v>
@@ -5722,19 +5725,19 @@
         <v>5491286</v>
       </c>
       <c r="Q88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5751,16 +5754,16 @@
         <v>56</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F89">
         <v>46</v>
       </c>
       <c r="G89">
-        <v>105.981467143584</v>
+        <v>105.990276218178</v>
       </c>
       <c r="H89">
-        <v>992</v>
+        <v>992.4</v>
       </c>
       <c r="I89">
         <v>459</v>
@@ -5772,7 +5775,7 @@
         <v>10.7142857142857</v>
       </c>
       <c r="L89">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M89">
         <v>169.4</v>
@@ -5787,19 +5790,19 @@
         <v>5491286</v>
       </c>
       <c r="Q89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U89" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5816,16 +5819,16 @@
         <v>56</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F90">
         <v>46</v>
       </c>
       <c r="G90">
-        <v>105.981467143584</v>
+        <v>105.990276218178</v>
       </c>
       <c r="H90">
-        <v>992</v>
+        <v>992.4</v>
       </c>
       <c r="I90">
         <v>459</v>
@@ -5837,7 +5840,7 @@
         <v>10.7142857142857</v>
       </c>
       <c r="L90">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M90">
         <v>169.4</v>
@@ -5852,19 +5855,19 @@
         <v>5491286</v>
       </c>
       <c r="Q90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5881,16 +5884,16 @@
         <v>56</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F91">
         <v>46</v>
       </c>
       <c r="G91">
-        <v>105.981467143584</v>
+        <v>105.990276218178</v>
       </c>
       <c r="H91">
-        <v>992</v>
+        <v>992.4</v>
       </c>
       <c r="I91">
         <v>459</v>
@@ -5902,7 +5905,7 @@
         <v>10.7142857142857</v>
       </c>
       <c r="L91">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="M91">
         <v>169.4</v>
@@ -5917,19 +5920,19 @@
         <v>5491286</v>
       </c>
       <c r="Q91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5946,7 +5949,7 @@
         <v>56</v>
       </c>
       <c r="E92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F92">
         <v>126</v>
@@ -5976,16 +5979,16 @@
         <v>5491286</v>
       </c>
       <c r="Q92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6002,13 +6005,13 @@
         <v>56</v>
       </c>
       <c r="E93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F93">
         <v>0.00217</v>
       </c>
       <c r="G93">
-        <v>0.0038951290758606</v>
+        <v>0.0038840742192255</v>
       </c>
       <c r="H93">
         <v>0.0244834367527385</v>
@@ -6017,10 +6020,10 @@
         <v>0.0133</v>
       </c>
       <c r="L93">
-        <v>0.00414</v>
+        <v>0.00315</v>
       </c>
       <c r="M93">
-        <v>0.00613</v>
+        <v>0.00612</v>
       </c>
       <c r="N93">
         <v>0.01153</v>
@@ -6032,19 +6035,19 @@
         <v>5491286</v>
       </c>
       <c r="Q93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U93" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6061,13 +6064,13 @@
         <v>56</v>
       </c>
       <c r="E94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F94">
         <v>0.00217</v>
       </c>
       <c r="G94">
-        <v>0.0038951290758606</v>
+        <v>0.0038840742192255</v>
       </c>
       <c r="H94">
         <v>0.0244834367527385</v>
@@ -6076,10 +6079,10 @@
         <v>0.0133</v>
       </c>
       <c r="L94">
-        <v>0.00414</v>
+        <v>0.00315</v>
       </c>
       <c r="M94">
-        <v>0.00613</v>
+        <v>0.00612</v>
       </c>
       <c r="N94">
         <v>0.01153</v>
@@ -6091,19 +6094,19 @@
         <v>5491286</v>
       </c>
       <c r="Q94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U94" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6120,7 +6123,7 @@
         <v>56</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F95">
         <v>0.0795</v>
@@ -6135,7 +6138,7 @@
         <v>0.1765</v>
       </c>
       <c r="L95">
-        <v>0.038</v>
+        <v>0.045</v>
       </c>
       <c r="M95">
         <v>0.13196</v>
@@ -6150,19 +6153,19 @@
         <v>5491286</v>
       </c>
       <c r="Q95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U95" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6179,7 +6182,7 @@
         <v>56</v>
       </c>
       <c r="E96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F96">
         <v>0.0795</v>
@@ -6194,7 +6197,7 @@
         <v>0.1765</v>
       </c>
       <c r="L96">
-        <v>0.038</v>
+        <v>0.045</v>
       </c>
       <c r="M96">
         <v>0.13196</v>
@@ -6209,19 +6212,19 @@
         <v>5491286</v>
       </c>
       <c r="Q96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6238,7 +6241,7 @@
         <v>56</v>
       </c>
       <c r="E97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F97">
         <v>7.53</v>
@@ -6268,16 +6271,16 @@
         <v>5491286</v>
       </c>
       <c r="Q97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6291,7 +6294,7 @@
         <v>56</v>
       </c>
       <c r="E98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F98">
         <v>0.083</v>
@@ -6306,7 +6309,7 @@
         <v>0.1806</v>
       </c>
       <c r="L98">
-        <v>0.051</v>
+        <v>0.056</v>
       </c>
       <c r="M98">
         <v>0.145</v>
@@ -6321,19 +6324,19 @@
         <v>5491286</v>
       </c>
       <c r="Q98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6347,7 +6350,7 @@
         <v>56</v>
       </c>
       <c r="E99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F99">
         <v>0.083</v>
@@ -6362,7 +6365,7 @@
         <v>0.1806</v>
       </c>
       <c r="L99">
-        <v>0.051</v>
+        <v>0.056</v>
       </c>
       <c r="M99">
         <v>0.145</v>
@@ -6377,19 +6380,19 @@
         <v>5491286</v>
       </c>
       <c r="Q99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6403,7 +6406,7 @@
         <v>56</v>
       </c>
       <c r="E100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F100">
         <v>0.14</v>
@@ -6433,19 +6436,19 @@
         <v>5491286</v>
       </c>
       <c r="Q100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U100" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6459,7 +6462,7 @@
         <v>56</v>
       </c>
       <c r="E101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F101">
         <v>0.14</v>
@@ -6489,19 +6492,19 @@
         <v>5491286</v>
       </c>
       <c r="Q101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U101" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6515,7 +6518,7 @@
         <v>56</v>
       </c>
       <c r="E102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F102">
         <v>0.014</v>
@@ -6545,19 +6548,19 @@
         <v>5491286</v>
       </c>
       <c r="Q102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U102" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6571,7 +6574,7 @@
         <v>56</v>
       </c>
       <c r="E103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F103">
         <v>0.014</v>
@@ -6601,19 +6604,19 @@
         <v>5491286</v>
       </c>
       <c r="Q103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U103" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6630,7 +6633,7 @@
         <v>57</v>
       </c>
       <c r="E104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F104">
         <v>0.64</v>
@@ -6660,16 +6663,16 @@
         <v>5491286</v>
       </c>
       <c r="Q104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6686,13 +6689,13 @@
         <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F105">
         <v>3.1</v>
       </c>
       <c r="G105">
-        <v>8.99908792566664</v>
+        <v>8.99916226604399</v>
       </c>
       <c r="H105">
         <v>110</v>
@@ -6701,7 +6704,7 @@
         <v>36.85</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
         <v>15.175</v>
@@ -6716,19 +6719,19 @@
         <v>5491286</v>
       </c>
       <c r="Q105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U105" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6745,7 +6748,7 @@
         <v>57</v>
       </c>
       <c r="E106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F106">
         <v>3.37</v>
@@ -6775,19 +6778,19 @@
         <v>5491286</v>
       </c>
       <c r="Q106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6804,7 +6807,7 @@
         <v>57</v>
       </c>
       <c r="E107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F107">
         <v>0.011</v>
@@ -6819,7 +6822,7 @@
         <v>0.0184</v>
       </c>
       <c r="L107">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="M107">
         <v>0.01398</v>
@@ -6834,19 +6837,19 @@
         <v>5491286</v>
       </c>
       <c r="Q107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6863,7 +6866,7 @@
         <v>57</v>
       </c>
       <c r="E108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F108">
         <v>0.011</v>
@@ -6878,7 +6881,7 @@
         <v>0.0184</v>
       </c>
       <c r="L108">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="M108">
         <v>0.01398</v>
@@ -6893,19 +6896,19 @@
         <v>5491286</v>
       </c>
       <c r="Q108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -6922,16 +6925,16 @@
         <v>57</v>
       </c>
       <c r="E109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F109">
         <v>46</v>
       </c>
       <c r="G109">
-        <v>99.2865447745161</v>
+        <v>99.3072967998654</v>
       </c>
       <c r="H109">
-        <v>992</v>
+        <v>992.4</v>
       </c>
       <c r="I109">
         <v>377</v>
@@ -6943,7 +6946,7 @@
         <v>8.928571428571431</v>
       </c>
       <c r="L109">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M109">
         <v>140</v>
@@ -6958,19 +6961,19 @@
         <v>5491286</v>
       </c>
       <c r="Q109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -6987,16 +6990,16 @@
         <v>57</v>
       </c>
       <c r="E110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F110">
         <v>46</v>
       </c>
       <c r="G110">
-        <v>99.2865447745161</v>
+        <v>99.3072967998654</v>
       </c>
       <c r="H110">
-        <v>992</v>
+        <v>992.4</v>
       </c>
       <c r="I110">
         <v>377</v>
@@ -7008,7 +7011,7 @@
         <v>8.928571428571431</v>
       </c>
       <c r="L110">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M110">
         <v>140</v>
@@ -7023,19 +7026,19 @@
         <v>5491286</v>
       </c>
       <c r="Q110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7052,16 +7055,16 @@
         <v>57</v>
       </c>
       <c r="E111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F111">
         <v>46</v>
       </c>
       <c r="G111">
-        <v>99.2865447745161</v>
+        <v>99.3072967998654</v>
       </c>
       <c r="H111">
-        <v>992</v>
+        <v>992.4</v>
       </c>
       <c r="I111">
         <v>377</v>
@@ -7073,7 +7076,7 @@
         <v>8.928571428571431</v>
       </c>
       <c r="L111">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M111">
         <v>140</v>
@@ -7088,19 +7091,19 @@
         <v>5491286</v>
       </c>
       <c r="Q111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7117,16 +7120,16 @@
         <v>57</v>
       </c>
       <c r="E112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F112">
         <v>46</v>
       </c>
       <c r="G112">
-        <v>99.2865447745161</v>
+        <v>99.3072967998654</v>
       </c>
       <c r="H112">
-        <v>992</v>
+        <v>992.4</v>
       </c>
       <c r="I112">
         <v>377</v>
@@ -7138,7 +7141,7 @@
         <v>8.928571428571431</v>
       </c>
       <c r="L112">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M112">
         <v>140</v>
@@ -7153,19 +7156,19 @@
         <v>5491286</v>
       </c>
       <c r="Q112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7182,7 +7185,7 @@
         <v>57</v>
       </c>
       <c r="E113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F113">
         <v>129.17</v>
@@ -7212,16 +7215,16 @@
         <v>5491286</v>
       </c>
       <c r="Q113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7238,13 +7241,13 @@
         <v>57</v>
       </c>
       <c r="E114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F114">
-        <v>0.00235</v>
+        <v>0.00234</v>
       </c>
       <c r="G114">
-        <v>0.0039717730981762</v>
+        <v>0.0039648296847068</v>
       </c>
       <c r="H114">
         <v>0.0244834367527385</v>
@@ -7253,10 +7256,10 @@
         <v>0.01314</v>
       </c>
       <c r="L114">
-        <v>0.00418</v>
+        <v>0.00409</v>
       </c>
       <c r="M114">
-        <v>0.00604</v>
+        <v>0.00603</v>
       </c>
       <c r="N114">
         <v>0.01147</v>
@@ -7268,19 +7271,19 @@
         <v>5491286</v>
       </c>
       <c r="Q114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U114" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7297,13 +7300,13 @@
         <v>57</v>
       </c>
       <c r="E115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F115">
-        <v>0.00235</v>
+        <v>0.00234</v>
       </c>
       <c r="G115">
-        <v>0.0039717730981762</v>
+        <v>0.0039648296847068</v>
       </c>
       <c r="H115">
         <v>0.0244834367527385</v>
@@ -7312,10 +7315,10 @@
         <v>0.01314</v>
       </c>
       <c r="L115">
-        <v>0.00418</v>
+        <v>0.00409</v>
       </c>
       <c r="M115">
-        <v>0.00604</v>
+        <v>0.00603</v>
       </c>
       <c r="N115">
         <v>0.01147</v>
@@ -7327,19 +7330,19 @@
         <v>5491286</v>
       </c>
       <c r="Q115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U115" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7356,7 +7359,7 @@
         <v>57</v>
       </c>
       <c r="E116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F116">
         <v>0.06950000000000001</v>
@@ -7371,7 +7374,7 @@
         <v>0.167</v>
       </c>
       <c r="L116">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="M116">
         <v>0.12496</v>
@@ -7386,19 +7389,19 @@
         <v>5491286</v>
       </c>
       <c r="Q116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7415,7 +7418,7 @@
         <v>57</v>
       </c>
       <c r="E117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F117">
         <v>0.06950000000000001</v>
@@ -7430,7 +7433,7 @@
         <v>0.167</v>
       </c>
       <c r="L117">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="M117">
         <v>0.12496</v>
@@ -7445,19 +7448,19 @@
         <v>5491286</v>
       </c>
       <c r="Q117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U117" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7474,7 +7477,7 @@
         <v>57</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F118">
         <v>7.595</v>
@@ -7504,16 +7507,16 @@
         <v>5491286</v>
       </c>
       <c r="Q118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T118" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7527,7 +7530,7 @@
         <v>57</v>
       </c>
       <c r="E119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F119">
         <v>0.0785</v>
@@ -7542,7 +7545,7 @@
         <v>0.1699</v>
       </c>
       <c r="L119">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="M119">
         <v>0.13494</v>
@@ -7557,19 +7560,19 @@
         <v>5491286</v>
       </c>
       <c r="Q119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T119" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7583,7 +7586,7 @@
         <v>57</v>
       </c>
       <c r="E120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F120">
         <v>0.0785</v>
@@ -7598,7 +7601,7 @@
         <v>0.1699</v>
       </c>
       <c r="L120">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="M120">
         <v>0.13494</v>
@@ -7613,19 +7616,19 @@
         <v>5491286</v>
       </c>
       <c r="Q120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7639,7 +7642,7 @@
         <v>57</v>
       </c>
       <c r="E121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F121">
         <v>0.14</v>
@@ -7669,19 +7672,19 @@
         <v>5491286</v>
       </c>
       <c r="Q121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T121" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U121" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7695,7 +7698,7 @@
         <v>57</v>
       </c>
       <c r="E122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F122">
         <v>0.14</v>
@@ -7725,19 +7728,19 @@
         <v>5491286</v>
       </c>
       <c r="Q122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U122" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7751,7 +7754,7 @@
         <v>57</v>
       </c>
       <c r="E123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F123">
         <v>0.014</v>
@@ -7781,19 +7784,19 @@
         <v>5491286</v>
       </c>
       <c r="Q123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U123" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7807,7 +7810,7 @@
         <v>57</v>
       </c>
       <c r="E124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F124">
         <v>0.014</v>
@@ -7837,19 +7840,1255 @@
         <v>5491286</v>
       </c>
       <c r="Q124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U124" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" t="s">
+        <v>58</v>
+      </c>
+      <c r="E125" t="s">
+        <v>59</v>
+      </c>
+      <c r="F125">
+        <v>0.656</v>
+      </c>
+      <c r="G125">
+        <v>0.6602</v>
+      </c>
+      <c r="H125">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="I125">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="L125">
+        <v>0.656</v>
+      </c>
+      <c r="M125">
+        <v>0.68765</v>
+      </c>
+      <c r="N125">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="O125">
+        <v>1788683</v>
+      </c>
+      <c r="P125">
+        <v>5491286</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>60</v>
+      </c>
+      <c r="R125" t="s">
+        <v>61</v>
+      </c>
+      <c r="S125" t="s">
+        <v>62</v>
+      </c>
+      <c r="T125" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>8.528167959589389</v>
+      </c>
+      <c r="H126">
+        <v>110</v>
+      </c>
+      <c r="I126">
+        <v>38.6</v>
+      </c>
+      <c r="L126">
+        <v>3.025</v>
+      </c>
+      <c r="M126">
+        <v>14</v>
+      </c>
+      <c r="N126">
+        <v>23</v>
+      </c>
+      <c r="O126">
+        <v>1788683</v>
+      </c>
+      <c r="P126">
+        <v>5491286</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>60</v>
+      </c>
+      <c r="R126" t="s">
+        <v>61</v>
+      </c>
+      <c r="S126" t="s">
+        <v>62</v>
+      </c>
+      <c r="T126" t="s">
+        <v>63</v>
+      </c>
+      <c r="U126" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" t="s">
+        <v>58</v>
+      </c>
+      <c r="E127" t="s">
+        <v>59</v>
+      </c>
+      <c r="F127">
+        <v>3.5</v>
+      </c>
+      <c r="G127">
+        <v>3.5037037037037</v>
+      </c>
+      <c r="H127">
+        <v>6.8</v>
+      </c>
+      <c r="I127">
+        <v>6.19</v>
+      </c>
+      <c r="L127">
+        <v>3.8</v>
+      </c>
+      <c r="M127">
+        <v>4.6896</v>
+      </c>
+      <c r="N127">
+        <v>6.027</v>
+      </c>
+      <c r="O127">
+        <v>1788683</v>
+      </c>
+      <c r="P127">
+        <v>5491286</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>60</v>
+      </c>
+      <c r="R127" t="s">
+        <v>61</v>
+      </c>
+      <c r="S127" t="s">
+        <v>62</v>
+      </c>
+      <c r="T127" t="s">
+        <v>63</v>
+      </c>
+      <c r="U127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>58</v>
+      </c>
+      <c r="E128" t="s">
+        <v>59</v>
+      </c>
+      <c r="F128">
+        <v>0.01</v>
+      </c>
+      <c r="G128">
+        <v>0.0115178571428571</v>
+      </c>
+      <c r="H128">
+        <v>0.044</v>
+      </c>
+      <c r="I128">
+        <v>0.0184</v>
+      </c>
+      <c r="L128">
+        <v>0.01</v>
+      </c>
+      <c r="M128">
+        <v>0.013</v>
+      </c>
+      <c r="N128">
+        <v>0.01602</v>
+      </c>
+      <c r="O128">
+        <v>1788683</v>
+      </c>
+      <c r="P128">
+        <v>5491286</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>60</v>
+      </c>
+      <c r="R128" t="s">
+        <v>61</v>
+      </c>
+      <c r="S128" t="s">
+        <v>62</v>
+      </c>
+      <c r="T128" t="s">
+        <v>63</v>
+      </c>
+      <c r="U128" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" t="s">
+        <v>58</v>
+      </c>
+      <c r="E129" t="s">
+        <v>59</v>
+      </c>
+      <c r="F129">
+        <v>0.01</v>
+      </c>
+      <c r="G129">
+        <v>0.0115178571428571</v>
+      </c>
+      <c r="H129">
+        <v>0.044</v>
+      </c>
+      <c r="I129">
+        <v>0.0184</v>
+      </c>
+      <c r="L129">
+        <v>0.01</v>
+      </c>
+      <c r="M129">
+        <v>0.013</v>
+      </c>
+      <c r="N129">
+        <v>0.01602</v>
+      </c>
+      <c r="O129">
+        <v>1788683</v>
+      </c>
+      <c r="P129">
+        <v>5491286</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>60</v>
+      </c>
+      <c r="R129" t="s">
+        <v>61</v>
+      </c>
+      <c r="S129" t="s">
+        <v>62</v>
+      </c>
+      <c r="T129" t="s">
+        <v>63</v>
+      </c>
+      <c r="U129" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" t="s">
+        <v>58</v>
+      </c>
+      <c r="E130" t="s">
+        <v>59</v>
+      </c>
+      <c r="F130">
+        <v>44</v>
+      </c>
+      <c r="G130">
+        <v>89.5563062959732</v>
+      </c>
+      <c r="H130">
+        <v>992.4</v>
+      </c>
+      <c r="I130">
+        <v>294</v>
+      </c>
+      <c r="J130">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K130">
+        <v>7.14285714285714</v>
+      </c>
+      <c r="L130">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="M130">
+        <v>140</v>
+      </c>
+      <c r="N130">
+        <v>245.896</v>
+      </c>
+      <c r="O130">
+        <v>1788683</v>
+      </c>
+      <c r="P130">
+        <v>5491286</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>60</v>
+      </c>
+      <c r="R130" t="s">
+        <v>61</v>
+      </c>
+      <c r="S130" t="s">
+        <v>62</v>
+      </c>
+      <c r="T130" t="s">
+        <v>63</v>
+      </c>
+      <c r="U130" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" t="s">
+        <v>59</v>
+      </c>
+      <c r="F131">
+        <v>44</v>
+      </c>
+      <c r="G131">
+        <v>89.5563062959732</v>
+      </c>
+      <c r="H131">
+        <v>992.4</v>
+      </c>
+      <c r="I131">
+        <v>294</v>
+      </c>
+      <c r="J131">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K131">
+        <v>7.14285714285714</v>
+      </c>
+      <c r="L131">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="M131">
+        <v>140</v>
+      </c>
+      <c r="N131">
+        <v>245.896</v>
+      </c>
+      <c r="O131">
+        <v>1788683</v>
+      </c>
+      <c r="P131">
+        <v>5491286</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>60</v>
+      </c>
+      <c r="R131" t="s">
+        <v>61</v>
+      </c>
+      <c r="S131" t="s">
+        <v>62</v>
+      </c>
+      <c r="T131" t="s">
+        <v>63</v>
+      </c>
+      <c r="U131" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" t="s">
+        <v>59</v>
+      </c>
+      <c r="F132">
+        <v>44</v>
+      </c>
+      <c r="G132">
+        <v>89.5563062959732</v>
+      </c>
+      <c r="H132">
+        <v>992.4</v>
+      </c>
+      <c r="I132">
+        <v>294</v>
+      </c>
+      <c r="J132">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K132">
+        <v>7.14285714285714</v>
+      </c>
+      <c r="L132">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="M132">
+        <v>140</v>
+      </c>
+      <c r="N132">
+        <v>245.896</v>
+      </c>
+      <c r="O132">
+        <v>1788683</v>
+      </c>
+      <c r="P132">
+        <v>5491286</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>60</v>
+      </c>
+      <c r="R132" t="s">
+        <v>61</v>
+      </c>
+      <c r="S132" t="s">
+        <v>62</v>
+      </c>
+      <c r="T132" t="s">
+        <v>63</v>
+      </c>
+      <c r="U132" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" t="s">
+        <v>58</v>
+      </c>
+      <c r="E133" t="s">
+        <v>59</v>
+      </c>
+      <c r="F133">
+        <v>44</v>
+      </c>
+      <c r="G133">
+        <v>89.5563062959732</v>
+      </c>
+      <c r="H133">
+        <v>992.4</v>
+      </c>
+      <c r="I133">
+        <v>294</v>
+      </c>
+      <c r="J133">
+        <v>1.78571428571429</v>
+      </c>
+      <c r="K133">
+        <v>7.14285714285714</v>
+      </c>
+      <c r="L133">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="M133">
+        <v>140</v>
+      </c>
+      <c r="N133">
+        <v>245.896</v>
+      </c>
+      <c r="O133">
+        <v>1788683</v>
+      </c>
+      <c r="P133">
+        <v>5491286</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>60</v>
+      </c>
+      <c r="R133" t="s">
+        <v>61</v>
+      </c>
+      <c r="S133" t="s">
+        <v>62</v>
+      </c>
+      <c r="T133" t="s">
+        <v>63</v>
+      </c>
+      <c r="U133" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" t="s">
+        <v>58</v>
+      </c>
+      <c r="E134" t="s">
+        <v>59</v>
+      </c>
+      <c r="F134">
+        <v>141.6</v>
+      </c>
+      <c r="G134">
+        <v>137.028</v>
+      </c>
+      <c r="H134">
+        <v>147.37</v>
+      </c>
+      <c r="I134">
+        <v>147.37</v>
+      </c>
+      <c r="L134">
+        <v>141.6</v>
+      </c>
+      <c r="M134">
+        <v>145.8405</v>
+      </c>
+      <c r="N134">
+        <v>147.37</v>
+      </c>
+      <c r="O134">
+        <v>1788683</v>
+      </c>
+      <c r="P134">
+        <v>5491286</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>60</v>
+      </c>
+      <c r="R134" t="s">
+        <v>61</v>
+      </c>
+      <c r="S134" t="s">
+        <v>62</v>
+      </c>
+      <c r="T134" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" t="s">
+        <v>59</v>
+      </c>
+      <c r="F135">
+        <v>0.0023</v>
+      </c>
+      <c r="G135">
+        <v>0.003601715086282</v>
+      </c>
+      <c r="H135">
+        <v>0.0244834367527385</v>
+      </c>
+      <c r="I135">
+        <v>0.01298</v>
+      </c>
+      <c r="L135">
+        <v>0.00293</v>
+      </c>
+      <c r="M135">
+        <v>0.0057</v>
+      </c>
+      <c r="N135">
+        <v>0.01141</v>
+      </c>
+      <c r="O135">
+        <v>1788683</v>
+      </c>
+      <c r="P135">
+        <v>5491286</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>60</v>
+      </c>
+      <c r="R135" t="s">
+        <v>61</v>
+      </c>
+      <c r="S135" t="s">
+        <v>62</v>
+      </c>
+      <c r="T135" t="s">
+        <v>63</v>
+      </c>
+      <c r="U135" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" t="s">
+        <v>43</v>
+      </c>
+      <c r="D136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E136" t="s">
+        <v>59</v>
+      </c>
+      <c r="F136">
+        <v>0.0023</v>
+      </c>
+      <c r="G136">
+        <v>0.003601715086282</v>
+      </c>
+      <c r="H136">
+        <v>0.0244834367527385</v>
+      </c>
+      <c r="I136">
+        <v>0.01298</v>
+      </c>
+      <c r="L136">
+        <v>0.00293</v>
+      </c>
+      <c r="M136">
+        <v>0.0057</v>
+      </c>
+      <c r="N136">
+        <v>0.01141</v>
+      </c>
+      <c r="O136">
+        <v>1788683</v>
+      </c>
+      <c r="P136">
+        <v>5491286</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>60</v>
+      </c>
+      <c r="R136" t="s">
+        <v>61</v>
+      </c>
+      <c r="S136" t="s">
+        <v>62</v>
+      </c>
+      <c r="T136" t="s">
+        <v>63</v>
+      </c>
+      <c r="U136" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" t="s">
+        <v>43</v>
+      </c>
+      <c r="D137" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137" t="s">
+        <v>59</v>
+      </c>
+      <c r="F137">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="G137">
+        <v>0.0850178571428571</v>
+      </c>
+      <c r="H137">
+        <v>0.505</v>
+      </c>
+      <c r="I137">
+        <v>0.167</v>
+      </c>
+      <c r="L137">
+        <v>0.048</v>
+      </c>
+      <c r="M137">
+        <v>0.12192</v>
+      </c>
+      <c r="N137">
+        <v>0.15104</v>
+      </c>
+      <c r="O137">
+        <v>1788683</v>
+      </c>
+      <c r="P137">
+        <v>5491286</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>60</v>
+      </c>
+      <c r="R137" t="s">
+        <v>61</v>
+      </c>
+      <c r="S137" t="s">
+        <v>62</v>
+      </c>
+      <c r="T137" t="s">
+        <v>63</v>
+      </c>
+      <c r="U137" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" t="s">
+        <v>43</v>
+      </c>
+      <c r="D138" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138" t="s">
+        <v>59</v>
+      </c>
+      <c r="F138">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="G138">
+        <v>0.0850178571428571</v>
+      </c>
+      <c r="H138">
+        <v>0.505</v>
+      </c>
+      <c r="I138">
+        <v>0.167</v>
+      </c>
+      <c r="L138">
+        <v>0.048</v>
+      </c>
+      <c r="M138">
+        <v>0.12192</v>
+      </c>
+      <c r="N138">
+        <v>0.15104</v>
+      </c>
+      <c r="O138">
+        <v>1788683</v>
+      </c>
+      <c r="P138">
+        <v>5491286</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>60</v>
+      </c>
+      <c r="R138" t="s">
+        <v>61</v>
+      </c>
+      <c r="S138" t="s">
+        <v>62</v>
+      </c>
+      <c r="T138" t="s">
+        <v>63</v>
+      </c>
+      <c r="U138" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" t="s">
+        <v>43</v>
+      </c>
+      <c r="D139" t="s">
+        <v>58</v>
+      </c>
+      <c r="E139" t="s">
+        <v>59</v>
+      </c>
+      <c r="F139">
+        <v>7.595</v>
+      </c>
+      <c r="G139">
+        <v>7.5364</v>
+      </c>
+      <c r="H139">
+        <v>7.742</v>
+      </c>
+      <c r="I139">
+        <v>7.742</v>
+      </c>
+      <c r="L139">
+        <v>7.595</v>
+      </c>
+      <c r="M139">
+        <v>7.6923</v>
+      </c>
+      <c r="N139">
+        <v>7.742</v>
+      </c>
+      <c r="O139">
+        <v>1788683</v>
+      </c>
+      <c r="P139">
+        <v>5491286</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>60</v>
+      </c>
+      <c r="R139" t="s">
+        <v>61</v>
+      </c>
+      <c r="S139" t="s">
+        <v>62</v>
+      </c>
+      <c r="T139" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D140" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" t="s">
+        <v>59</v>
+      </c>
+      <c r="F140">
+        <v>0.0765</v>
+      </c>
+      <c r="G140">
+        <v>0.0972142857142857</v>
+      </c>
+      <c r="H140">
+        <v>0.76</v>
+      </c>
+      <c r="I140">
+        <v>0.1699</v>
+      </c>
+      <c r="L140">
+        <v>0.059</v>
+      </c>
+      <c r="M140">
+        <v>0.132</v>
+      </c>
+      <c r="N140">
+        <v>0.15408</v>
+      </c>
+      <c r="O140">
+        <v>1788683</v>
+      </c>
+      <c r="P140">
+        <v>5491286</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>60</v>
+      </c>
+      <c r="R140" t="s">
+        <v>61</v>
+      </c>
+      <c r="S140" t="s">
+        <v>62</v>
+      </c>
+      <c r="T140" t="s">
+        <v>63</v>
+      </c>
+      <c r="U140" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" t="s">
+        <v>58</v>
+      </c>
+      <c r="E141" t="s">
+        <v>59</v>
+      </c>
+      <c r="F141">
+        <v>0.0765</v>
+      </c>
+      <c r="G141">
+        <v>0.0972142857142857</v>
+      </c>
+      <c r="H141">
+        <v>0.76</v>
+      </c>
+      <c r="I141">
+        <v>0.1699</v>
+      </c>
+      <c r="L141">
+        <v>0.059</v>
+      </c>
+      <c r="M141">
+        <v>0.132</v>
+      </c>
+      <c r="N141">
+        <v>0.15408</v>
+      </c>
+      <c r="O141">
+        <v>1788683</v>
+      </c>
+      <c r="P141">
+        <v>5491286</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>60</v>
+      </c>
+      <c r="R141" t="s">
+        <v>61</v>
+      </c>
+      <c r="S141" t="s">
+        <v>62</v>
+      </c>
+      <c r="T141" t="s">
+        <v>63</v>
+      </c>
+      <c r="U141" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142" t="s">
+        <v>58</v>
+      </c>
+      <c r="E142" t="s">
+        <v>59</v>
+      </c>
+      <c r="F142">
+        <v>0.13</v>
+      </c>
+      <c r="G142">
+        <v>0.304821428571429</v>
+      </c>
+      <c r="H142">
+        <v>9.49</v>
+      </c>
+      <c r="I142">
+        <v>0.224</v>
+      </c>
+      <c r="L142">
+        <v>0.11</v>
+      </c>
+      <c r="M142">
+        <v>0.1898</v>
+      </c>
+      <c r="N142">
+        <v>0.21</v>
+      </c>
+      <c r="O142">
+        <v>1788683</v>
+      </c>
+      <c r="P142">
+        <v>5491286</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>60</v>
+      </c>
+      <c r="R142" t="s">
+        <v>61</v>
+      </c>
+      <c r="S142" t="s">
+        <v>62</v>
+      </c>
+      <c r="T142" t="s">
+        <v>63</v>
+      </c>
+      <c r="U142" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" t="s">
+        <v>58</v>
+      </c>
+      <c r="E143" t="s">
+        <v>59</v>
+      </c>
+      <c r="F143">
+        <v>0.13</v>
+      </c>
+      <c r="G143">
+        <v>0.304821428571429</v>
+      </c>
+      <c r="H143">
+        <v>9.49</v>
+      </c>
+      <c r="I143">
+        <v>0.224</v>
+      </c>
+      <c r="L143">
+        <v>0.11</v>
+      </c>
+      <c r="M143">
+        <v>0.1898</v>
+      </c>
+      <c r="N143">
+        <v>0.21</v>
+      </c>
+      <c r="O143">
+        <v>1788683</v>
+      </c>
+      <c r="P143">
+        <v>5491286</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>60</v>
+      </c>
+      <c r="R143" t="s">
+        <v>61</v>
+      </c>
+      <c r="S143" t="s">
+        <v>62</v>
+      </c>
+      <c r="T143" t="s">
+        <v>63</v>
+      </c>
+      <c r="U143" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" t="s">
+        <v>58</v>
+      </c>
+      <c r="E144" t="s">
+        <v>59</v>
+      </c>
+      <c r="F144">
+        <v>0.014</v>
+      </c>
+      <c r="G144">
+        <v>0.0149821428571429</v>
+      </c>
+      <c r="H144">
+        <v>0.027</v>
+      </c>
+      <c r="I144">
+        <v>0.0237</v>
+      </c>
+      <c r="L144">
+        <v>0.014</v>
+      </c>
+      <c r="M144">
+        <v>0.018</v>
+      </c>
+      <c r="N144">
+        <v>0.02202</v>
+      </c>
+      <c r="O144">
+        <v>1788683</v>
+      </c>
+      <c r="P144">
+        <v>5491286</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>60</v>
+      </c>
+      <c r="R144" t="s">
+        <v>61</v>
+      </c>
+      <c r="S144" t="s">
+        <v>62</v>
+      </c>
+      <c r="T144" t="s">
+        <v>63</v>
+      </c>
+      <c r="U144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" t="s">
+        <v>58</v>
+      </c>
+      <c r="E145" t="s">
+        <v>59</v>
+      </c>
+      <c r="F145">
+        <v>0.014</v>
+      </c>
+      <c r="G145">
+        <v>0.0149821428571429</v>
+      </c>
+      <c r="H145">
+        <v>0.027</v>
+      </c>
+      <c r="I145">
+        <v>0.0237</v>
+      </c>
+      <c r="L145">
+        <v>0.014</v>
+      </c>
+      <c r="M145">
+        <v>0.018</v>
+      </c>
+      <c r="N145">
+        <v>0.02202</v>
+      </c>
+      <c r="O145">
+        <v>1788683</v>
+      </c>
+      <c r="P145">
+        <v>5491286</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>60</v>
+      </c>
+      <c r="R145" t="s">
+        <v>61</v>
+      </c>
+      <c r="S145" t="s">
+        <v>62</v>
+      </c>
+      <c r="T145" t="s">
+        <v>63</v>
+      </c>
+      <c r="U145" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
